--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha1.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H2">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N2">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q2">
-        <v>1.291027683446222</v>
+        <v>2.129081544067667</v>
       </c>
       <c r="R2">
-        <v>11.619249151016</v>
+        <v>19.161733896609</v>
       </c>
       <c r="S2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="T2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H3">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>17.553807</v>
       </c>
       <c r="O3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q3">
-        <v>1.282635222837</v>
+        <v>2.170311738597</v>
       </c>
       <c r="R3">
-        <v>11.543717005533</v>
+        <v>19.532805647373</v>
       </c>
       <c r="S3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="T3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H4">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N4">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q4">
-        <v>1.346708430313778</v>
+        <v>2.507366687218</v>
       </c>
       <c r="R4">
-        <v>12.120375872824</v>
+        <v>22.566300184962</v>
       </c>
       <c r="S4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="T4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H5">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N5">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q5">
-        <v>0.4470880495834444</v>
+        <v>0.6325729576616667</v>
       </c>
       <c r="R5">
-        <v>4.023792446251</v>
+        <v>5.693156618954999</v>
       </c>
       <c r="S5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="T5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
     </row>
   </sheetData>
